--- a/public/assets/files/Dosen.xlsx
+++ b/public/assets/files/Dosen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Sistem-Monitoring-TA\public\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Coding\Monitoring TA\SIMONIKA\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DC3C23-2550-42A9-AC61-BDAE740013B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7194F75-03AD-4F26-A423-23C8DDF03D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="126">
   <si>
     <t>nip</t>
   </si>
@@ -36,9 +36,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>jenis_kelamin</t>
   </si>
   <si>
@@ -51,41 +48,368 @@
     <t>P</t>
   </si>
   <si>
-    <t>Lutfi Hakim</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>lutfi@poliwangi.ac.id</t>
-  </si>
-  <si>
-    <t>0875367465367</t>
-  </si>
-  <si>
-    <t>Dianni Yusuf</t>
-  </si>
-  <si>
-    <t>dianni@poliwangi.ac.id</t>
-  </si>
-  <si>
-    <t>0823456787657</t>
-  </si>
-  <si>
-    <t>Mohamad Dimyati Ayatullah</t>
-  </si>
-  <si>
     <t>dimyati@poliwangi.ac.id</t>
   </si>
   <si>
-    <t>0814325654564</t>
+    <t>0722017601</t>
+  </si>
+  <si>
+    <t>197601222021211001</t>
+  </si>
+  <si>
+    <t>0705038402</t>
+  </si>
+  <si>
+    <t>198403052021212004</t>
+  </si>
+  <si>
+    <t>0022108005</t>
+  </si>
+  <si>
+    <t>198010222015041001</t>
+  </si>
+  <si>
+    <t>0720108301</t>
+  </si>
+  <si>
+    <t>198310202014042001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0019018307</t>
+  </si>
+  <si>
+    <t>198301192021211006</t>
+  </si>
+  <si>
+    <t>0004047712</t>
+  </si>
+  <si>
+    <t>197704042021211004</t>
+  </si>
+  <si>
+    <t>0005038604</t>
+  </si>
+  <si>
+    <t>0027097504</t>
+  </si>
+  <si>
+    <t>197509272021211002</t>
+  </si>
+  <si>
+    <t>198311052015041000</t>
+  </si>
+  <si>
+    <t>198403112019031000</t>
+  </si>
+  <si>
+    <t>197506252021211000</t>
+  </si>
+  <si>
+    <t>199010052014041000</t>
+  </si>
+  <si>
+    <t>199004192018031000</t>
+  </si>
+  <si>
+    <t>199209052022031000</t>
+  </si>
+  <si>
+    <t>199203302019031000</t>
+  </si>
+  <si>
+    <t>199009052019031000</t>
+  </si>
+  <si>
+    <t>199202272020122000</t>
+  </si>
+  <si>
+    <t>198708272024211000</t>
+  </si>
+  <si>
+    <t>199209212020122000</t>
+  </si>
+  <si>
+    <t>110010122</t>
+  </si>
+  <si>
+    <t>202136248</t>
+  </si>
+  <si>
+    <t>198903232022031000</t>
+  </si>
+  <si>
+    <t>199103112022031000</t>
+  </si>
+  <si>
+    <t>Mohamad Dimyati Ayatullah, S.T., M.Kom.</t>
+  </si>
+  <si>
+    <t>Dianni Yusuf, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>I Wayan Suardinata, S.Kom., M.T.</t>
+  </si>
+  <si>
+    <t>Eka Mistiko Rini, S.Kom, M.Kom.</t>
+  </si>
+  <si>
+    <t>Moh. Nur Shodiq, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Dedy Hidayat Kusuma, S.T., M.Cs.</t>
+  </si>
+  <si>
+    <t>Farizqi Panduardi, S.ST., M.T.</t>
+  </si>
+  <si>
+    <t>Herman Yuliandoko, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Devit Suwardiyanto,S.Si., M.T.</t>
+  </si>
+  <si>
+    <t>Endi Sailul Haq, S.T., M.Kom.</t>
+  </si>
+  <si>
+    <t>Subono, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Alfin Hidayat, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>Junaedi Adi Prasetyo, S.ST., M.Sc.</t>
+  </si>
+  <si>
+    <t>Galih Hendra Wibowo, S.Tr.Kom., M.T.</t>
+  </si>
+  <si>
+    <t>Lutfi Hakim, S.Pd., M.T.</t>
+  </si>
+  <si>
+    <t>Sepyan Purnama Kristanto, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>Ruth Ema Febrita, S.Pd., M.Kom.</t>
+  </si>
+  <si>
+    <t>Agus Priyo Utomo, S.ST., M.Tr.Kom.</t>
+  </si>
+  <si>
+    <t>Arum Andary Ratri, S.Si., M.Si.</t>
+  </si>
+  <si>
+    <t>Indira Nuansa Ratri, S.M., M.SM.</t>
+  </si>
+  <si>
+    <t>Lukman Hakim S.Kom., M.T</t>
+  </si>
+  <si>
+    <t>Khoirul Umam, S.Pd, M.Kom</t>
+  </si>
+  <si>
+    <t>dianniyusuf@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>wayan.suardinata@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>ekamrini@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>noer.shodiq@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>dedy@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>akufarisqi@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>herman.yuliandoko@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>devitswar@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>esailulhaq@gmail.com</t>
+  </si>
+  <si>
+    <t>subono@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>alfinhidayat@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>junaedi.prasetyo@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>galih@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>Lutfi@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>Sepyan@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>RuthEmaFebrita@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>agusp@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>Arumandaryratri@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>indiranuansaratri@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>lukmanhakim@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>khoirulumam@poliwangi.ac.id</t>
+  </si>
+  <si>
+    <t>08123399184</t>
+  </si>
+  <si>
+    <t>082328333399</t>
+  </si>
+  <si>
+    <t>085736577864</t>
+  </si>
+  <si>
+    <t>081913922224</t>
+  </si>
+  <si>
+    <t>085236675444</t>
+  </si>
+  <si>
+    <t>087755527517</t>
+  </si>
+  <si>
+    <t>082244680800</t>
+  </si>
+  <si>
+    <t>081334436478</t>
+  </si>
+  <si>
+    <t>08113570683</t>
+  </si>
+  <si>
+    <t>081336851513</t>
+  </si>
+  <si>
+    <t>087859576210</t>
+  </si>
+  <si>
+    <t>085731147608</t>
+  </si>
+  <si>
+    <t>082333312244</t>
+  </si>
+  <si>
+    <t>083831120642</t>
+  </si>
+  <si>
+    <t>085330161514</t>
+  </si>
+  <si>
+    <t>085237516017</t>
+  </si>
+  <si>
+    <t>085259082627</t>
+  </si>
+  <si>
+    <t>085731311399</t>
+  </si>
+  <si>
+    <t>083117703473</t>
+  </si>
+  <si>
+    <t>083831244299</t>
+  </si>
+  <si>
+    <t>081232947805</t>
+  </si>
+  <si>
+    <t>087755580796</t>
+  </si>
+  <si>
+    <t>alamat</t>
+  </si>
+  <si>
+    <t>Dusun Kraja 001/001 Sumbersari - Srono Banyuwangi 68471</t>
+  </si>
+  <si>
+    <t>Dsn. Gembolo Rt/Rw 01/01 Purwodadi - Gambiran Banyuwangi 68486</t>
+  </si>
+  <si>
+    <t>Jalan Prabu loro 525A Kelurahan Bakungan kecamtan Glagah</t>
+  </si>
+  <si>
+    <t>Dusun WatuUlo Rt/Rw 004/002 Rejosari - Glagah Banyuwangi 68432</t>
+  </si>
+  <si>
+    <t>Kampungtimur 001/004 Trigonco - Asembagus Situbondo 68373</t>
+  </si>
+  <si>
+    <t>Sumber Kepuh Rt/Rw 003/001 Kedungwungu - Tegaldlimo Banyuwangi 68484</t>
+  </si>
+  <si>
+    <t>Jl.S.Parman 33 Gardenia Estate G97</t>
+  </si>
+  <si>
+    <t>Perum Citra Garden Blok F1, Lemahbang Dewo, Rogojampi</t>
+  </si>
+  <si>
+    <t>Perum Mendut Hijau Blok F No 3, Tamanbaru, Banyuwangi</t>
+  </si>
+  <si>
+    <t>Dusun Kebonrejo Rt/Rw 003/001 Alasrejo Wongsorejo - Banyuwangi 68453</t>
+  </si>
+  <si>
+    <t>Jl. Bunga Kumis Kucing no. 20 Rt/Rw 004/002 Jatimulyo - Lowokwaru Malang 65141</t>
+  </si>
+  <si>
+    <t>Surabaya, Jl Ahmad 3 No.15 Rt.01 RW.10 Pepe Legi Waru Sidoarjo</t>
+  </si>
+  <si>
+    <t>Jl. Tirtosari Blok D No 12 Landungsari Malang 65151</t>
+  </si>
+  <si>
+    <t>Jl, kepodang no 11 Rw 1rw 2kalirejo kabat banyuwangi</t>
+  </si>
+  <si>
+    <t>Jl. Temuguruh Rt.03 Rw.01 Resomulyo Banyuwangi</t>
+  </si>
+  <si>
+    <t>Jl. Jaksa Agusng Suprapto, gg Annur 1 no 25 B pengajuran Banywuangi</t>
+  </si>
+  <si>
+    <t>Jl. RW Monginsidi 14 - Banyuwangi 68416</t>
+  </si>
+  <si>
+    <t>Dusun Krajan Barat Rt 1 Rw 1, Desa Singonjuruh Kecamatan Singonjuruh</t>
+  </si>
+  <si>
+    <t>Kedungringin, RT.001/RW.011, Muncar, Banyuwangi</t>
+  </si>
+  <si>
+    <t>LINGK.KRAMAT RT/RW 01/03 KEL.KERTOSARI KEC.BANYUWANGI KAB.BANYUWANGI</t>
+  </si>
+  <si>
+    <t>Dusen Aseman RT 3/RW 2, Desa Bimorejo, Wongsorejo, Banyuwangi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,20 +426,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,22 +501,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{24453EC4-2A4C-48F7-A4BF-45C8753481D6}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1CC5F5FA-53CD-453E-A28E-4860FAD37F30}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,46 +849,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2"/>
+        <v>104</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -467,85 +896,537 @@
       <c r="M1" s="2"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>112235</v>
-      </c>
-      <c r="C2" s="3">
-        <v>112235</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>112236</v>
-      </c>
-      <c r="C3" s="3">
-        <v>12236</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>112237</v>
-      </c>
-      <c r="C4" s="3">
-        <v>112237</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>201336106</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>705118304</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>15038402</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>25067508</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>5109001</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>19049005</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>5099204</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>30039202</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>5099006</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>27029204</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="G18" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>27088704</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>21099202</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>523038903</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>711039101</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{D7482C5F-D355-4E96-8067-BC8E2AF4C6CC}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{FB04F0A5-71F8-44C6-87F0-67CEBF5C621F}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{2DD78938-FBAC-4845-8835-6E09826F1911}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" display="mailto:esailulhaq@gmail.com" xr:uid="{AE958C18-27F6-4F76-8D5C-2B5C7F27CDC9}"/>
+    <hyperlink ref="D12" r:id="rId10" display="mailto:subono@poliwangi.ac.id" xr:uid="{8ABA730C-8698-4219-872C-848758787688}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{89649141-DE3C-45BD-A3D4-1E2622B16D61}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{A2BFF18A-9376-495E-80A1-E916E1DF021D}"/>
+    <hyperlink ref="D14" r:id="rId13" display="mailto:junaedi.prasetyo@poliwangi.ac.id" xr:uid="{56671D2D-3ADC-499D-B09A-B75D10C249B9}"/>
+    <hyperlink ref="D16" r:id="rId14" display="mailto:Lutfi@poliwangi.ac.id" xr:uid="{02E16E0A-F28B-4674-BDC7-2051591070FE}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{2357C4F1-BCA3-4DB0-8868-7B9F16269B5A}"/>
+    <hyperlink ref="D18" r:id="rId16" display="mailto:RuthEmaFebrita@poliwangi.ac.id" xr:uid="{FE99DCB3-10F6-4A49-B936-BC0531C3D98F}"/>
+    <hyperlink ref="D19" r:id="rId17" display="mailto:banksonk@poliwangi.ac.id" xr:uid="{17F5F62E-AD26-419C-935D-FE0E96314C18}"/>
+    <hyperlink ref="D20" r:id="rId18" display="mailto:Arumandaryratri@poliwangi.ac.id" xr:uid="{088DDCD6-BA1B-4B24-AD2C-18ECF6BA6331}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{A687A69A-D75D-4B65-A502-0CBC686C82C9}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{E68F4DD4-9989-4D74-BC13-62B579BA5F5B}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{DD9BF752-D0BD-417E-8E5F-653E5951D637}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/public/assets/files/Dosen.xlsx
+++ b/public/assets/files/Dosen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Coding\Monitoring TA\SIMONIKA\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7194F75-03AD-4F26-A423-23C8DDF03D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC97CC07-52B8-4924-A6BC-27D52DBFA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -527,9 +527,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,20 +549,11 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -852,7 +840,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,10 +857,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -906,16 +894,16 @@
       <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>105</v>
       </c>
     </row>
@@ -929,16 +917,16 @@
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="17" t="s">
         <v>106</v>
       </c>
     </row>
@@ -952,16 +940,16 @@
       <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>107</v>
       </c>
     </row>
@@ -975,16 +963,16 @@
       <c r="C5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>108</v>
       </c>
     </row>
@@ -998,16 +986,16 @@
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1021,16 +1009,16 @@
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="20" t="s">
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1044,16 +1032,16 @@
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1067,16 +1055,16 @@
       <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1090,16 +1078,16 @@
       <c r="C10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1113,16 +1101,16 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1136,16 +1124,16 @@
       <c r="C12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1159,16 +1147,16 @@
       <c r="C13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1182,16 +1170,16 @@
       <c r="C14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="21" t="s">
+      <c r="F14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1205,16 +1193,16 @@
       <c r="C15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="21" t="s">
+      <c r="F15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1228,16 +1216,16 @@
       <c r="C16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="21" t="s">
+      <c r="F16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1251,16 +1239,16 @@
       <c r="C17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="21" t="s">
+      <c r="F17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1274,16 +1262,16 @@
       <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="5" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1297,16 +1285,16 @@
       <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1320,16 +1308,16 @@
       <c r="C20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1343,16 +1331,16 @@
       <c r="C21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="5" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1366,16 +1354,16 @@
       <c r="C22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="21" t="s">
+      <c r="F22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1389,16 +1377,16 @@
       <c r="C23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="21" t="s">
+      <c r="F23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>125</v>
       </c>
     </row>

--- a/public/assets/files/Dosen.xlsx
+++ b/public/assets/files/Dosen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Coding\Monitoring TA\SIMONIKA\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC97CC07-52B8-4924-A6BC-27D52DBFA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AB51B0-B98D-4B10-90D9-ADE6C1E7CBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="130">
   <si>
     <t>nip</t>
   </si>
@@ -403,6 +403,18 @@
   </si>
   <si>
     <t>Dusen Aseman RT 3/RW 2, Desa Bimorejo, Wongsorejo, Banyuwangi</t>
+  </si>
+  <si>
+    <t>program_studi</t>
+  </si>
+  <si>
+    <t>TRPL</t>
+  </si>
+  <si>
+    <t>TRK</t>
+  </si>
+  <si>
+    <t>BD</t>
   </si>
 </sst>
 </file>
@@ -506,7 +518,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -554,6 +566,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -839,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="H1" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +870,7 @@
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="88.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -876,6 +894,9 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>104</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -906,6 +927,9 @@
       <c r="G2" s="17" t="s">
         <v>105</v>
       </c>
+      <c r="H2" s="19" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -929,6 +953,9 @@
       <c r="G3" s="17" t="s">
         <v>106</v>
       </c>
+      <c r="H3" s="19" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -952,6 +979,9 @@
       <c r="G4" s="17" t="s">
         <v>107</v>
       </c>
+      <c r="H4" s="19" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -975,6 +1005,9 @@
       <c r="G5" s="17" t="s">
         <v>108</v>
       </c>
+      <c r="H5" s="19" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -998,6 +1031,9 @@
       <c r="G6" s="17" t="s">
         <v>109</v>
       </c>
+      <c r="H6" s="19" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1021,6 +1057,9 @@
       <c r="G7" s="17" t="s">
         <v>110</v>
       </c>
+      <c r="H7" s="19" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1044,6 +1083,9 @@
       <c r="G8" s="17" t="s">
         <v>111</v>
       </c>
+      <c r="H8" s="19" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1067,6 +1109,9 @@
       <c r="G9" s="17" t="s">
         <v>112</v>
       </c>
+      <c r="H9" s="19" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1090,6 +1135,9 @@
       <c r="G10" s="5" t="s">
         <v>113</v>
       </c>
+      <c r="H10" s="19" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1113,6 +1161,9 @@
       <c r="G11" s="5" t="s">
         <v>114</v>
       </c>
+      <c r="H11" s="19" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1136,6 +1187,9 @@
       <c r="G12" s="5" t="s">
         <v>115</v>
       </c>
+      <c r="H12" s="19" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1159,6 +1213,9 @@
       <c r="G13" s="5" t="s">
         <v>116</v>
       </c>
+      <c r="H13" s="19" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1182,6 +1239,9 @@
       <c r="G14" s="5" t="s">
         <v>117</v>
       </c>
+      <c r="H14" s="19" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1205,6 +1265,9 @@
       <c r="G15" s="5" t="s">
         <v>116</v>
       </c>
+      <c r="H15" s="19" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1228,8 +1291,11 @@
       <c r="G16" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>5099006</v>
       </c>
@@ -1251,8 +1317,11 @@
       <c r="G17" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>27029204</v>
       </c>
@@ -1274,8 +1343,11 @@
       <c r="G18" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>27088704</v>
       </c>
@@ -1297,8 +1369,11 @@
       <c r="G19" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>21099202</v>
       </c>
@@ -1320,8 +1395,11 @@
       <c r="G20" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -1343,8 +1421,11 @@
       <c r="G21" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>523038903</v>
       </c>
@@ -1366,8 +1447,11 @@
       <c r="G22" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>711039101</v>
       </c>
@@ -1388,6 +1472,9 @@
       </c>
       <c r="G23" s="5" t="s">
         <v>125</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/files/Dosen.xlsx
+++ b/public/assets/files/Dosen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Coding\Monitoring TA\SIMONIKA\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AB51B0-B98D-4B10-90D9-ADE6C1E7CBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448903B8-786C-4D67-AB89-2FE944CD54A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="H1" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="D1" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +954,7 @@
         <v>106</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>107</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>109</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>110</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1110,7 +1110,7 @@
         <v>112</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1162,7 +1162,7 @@
         <v>114</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>115</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>117</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>116</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>119</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
         <v>121</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>122</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1448,7 +1448,7 @@
         <v>124</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>125</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
